--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,34 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Wireless Charging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoBackup\svn\V2X_Comunication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A913CF-D333-452D-85FD-4D6C38AF0AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51D1D3-DCDA-409B-A513-372EFBE551B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="10">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="10">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>IR Sensor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Component</t>
   </si>
@@ -42,31 +162,46 @@
     <t>LED(Green&amp;White&amp;Red)</t>
   </si>
   <si>
-    <t>Coils 45 turns &amp;  RX 125 turns</t>
-  </si>
-  <si>
-    <t>i need a timer to convert the 12volt comming to be be AC, and then on the other side when i am reciveing this I convert it again to DC to deliver to the battery on the car then it delivers dc to motors</t>
-  </si>
-  <si>
-    <t>Timer NE555 / cd4047</t>
-  </si>
-  <si>
-    <t>INA219</t>
-  </si>
-  <si>
-    <t>Current sensor</t>
-  </si>
-  <si>
-    <t>RX OUT+ → INA219 VIN+ → INA219 VIN− → TP4056 IN+</t>
-  </si>
-  <si>
-    <t>RX OUT− → TP4056 IN−</t>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Coils Module</t>
+  </si>
+  <si>
+    <t>Tp4056 Charge module</t>
+  </si>
+  <si>
+    <t>I2C LCD</t>
+  </si>
+  <si>
+    <t>Capasitor 100uf &amp; 0.1uF</t>
+  </si>
+  <si>
+    <t>220 ohm Resistor</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>INA219 Digital Power Monitor</t>
+  </si>
+  <si>
+    <t>3.7V Battery</t>
+  </si>
+  <si>
+    <t>11.1V Lipo Battery</t>
+  </si>
+  <si>
+    <t>Amazon Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,22 +241,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,253 +297,125 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67805</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>613537</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>83345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E22014E-78B0-B477-1192-8FB00082E0DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3111836" y="250032"/>
-          <a:ext cx="545732" cy="563563"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>769938</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1747042</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE29967B-45A1-E9CB-51EE-0FF0482F9B93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3813969" y="206375"/>
-          <a:ext cx="977104" cy="729217"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1563688</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>115095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2289174</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>86911</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4DDAD62-49C2-693E-D578-DE0F28F4BBBD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4925219" y="2857501"/>
-          <a:ext cx="725486" cy="702066"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2341245</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3397251</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>10318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D447C80-E32D-B13F-07FA-1D767CEDB00F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5385276" y="59531"/>
-          <a:ext cx="1056006" cy="1046162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="1">
+    <v>3</v>
+    <v>5</v>
+    <v>16x2 1602 LCD Display for Arduino</v>
+  </rv>
+  <rv s="1">
+    <v>4</v>
+    <v>5</v>
+    <v>5pcs,Electrolytic Capacitor Nichicon VZ ...</v>
+  </rv>
+  <rv s="1">
+    <v>5</v>
+    <v>5</v>
+    <v>Light Emitting Diode LED Green ...</v>
+  </rv>
+  <rv s="1">
+    <v>6</v>
+    <v>5</v>
+    <v>METAL FILM RESISTOR ...</v>
+  </rv>
+  <rv s="1">
+    <v>7</v>
+    <v>5</v>
+    <v>22650 Li-Ion battery 3.6V - 3.7V with ...</v>
+  </rv>
+  <rv s="1">
+    <v>8</v>
+    <v>5</v>
+    <v>Reely Modellbau-Akkupack (LiPo) 11.1 V ...</v>
+  </rv>
+  <rv s="1">
+    <v>9</v>
+    <v>5</v>
+    <v>Two Phase ABS Plastic Black Battery ...</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,97 +681,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="92.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="66.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="C6" s="4" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C7" s="4" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="C8" s="4" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
+    <row r="12" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>